--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Camp-Fpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Camp-Fpr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Camp</t>
+  </si>
+  <si>
+    <t>Fpr2</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Camp</t>
-  </si>
-  <si>
-    <t>Fpr2</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -534,10 +537,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.07072166666666667</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="H2">
-        <v>0.212165</v>
+        <v>0.17423</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>3.773181</v>
       </c>
       <c r="O2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="P2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="Q2">
-        <v>0.08894854965166667</v>
+        <v>0.07304459173666666</v>
       </c>
       <c r="R2">
-        <v>0.8005369468650001</v>
+        <v>0.65740132563</v>
       </c>
       <c r="S2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
       <c r="T2">
-        <v>0.3633293041311343</v>
+        <v>0.2013489143128838</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,10 +599,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.07072166666666667</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="H3">
-        <v>0.212165</v>
+        <v>0.17423</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -614,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.09159266666666667</v>
+        <v>0.246708</v>
       </c>
       <c r="N3">
-        <v>0.274778</v>
+        <v>0.740124</v>
       </c>
       <c r="O3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="P3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="Q3">
-        <v>0.006477586041111111</v>
+        <v>0.01432797828</v>
       </c>
       <c r="R3">
-        <v>0.05829827437000001</v>
+        <v>0.12895180452</v>
       </c>
       <c r="S3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
       <c r="T3">
-        <v>0.02645908042326748</v>
+        <v>0.03949536580856015</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,7 +652,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,10 +661,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.07072166666666667</v>
+        <v>0.05807666666666667</v>
       </c>
       <c r="H4">
-        <v>0.212165</v>
+        <v>0.17423</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.112352666666667</v>
+        <v>4.74207</v>
       </c>
       <c r="N4">
-        <v>6.337058</v>
+        <v>14.22621</v>
       </c>
       <c r="O4">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="P4">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
       <c r="Q4">
-        <v>0.1493891011744445</v>
+        <v>0.2754036187</v>
       </c>
       <c r="R4">
-        <v>1.34450191057</v>
+        <v>2.4786325683</v>
       </c>
       <c r="S4">
-        <v>0.6102116154455982</v>
+        <v>0.7591557198785561</v>
       </c>
       <c r="T4">
-        <v>0.6102116154455981</v>
+        <v>0.759155719878556</v>
       </c>
     </row>
   </sheetData>
